--- a/CP031/Default.xlsx
+++ b/CP031/Default.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Postpago</t>
   </si>
@@ -34,12 +34,6 @@
     <t>s_Detalle</t>
   </si>
   <si>
-    <t>e_WIC_ValidaCli</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>e_NumDocumento</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>Tipo_Venta</t>
   </si>
   <si>
-    <t>RUC</t>
-  </si>
-  <si>
     <t>combo</t>
   </si>
   <si>
@@ -103,6 +94,9 @@
     <t>Inicio</t>
   </si>
   <si>
+    <t>DNI</t>
+  </si>
+  <si>
     <t>e_OperadorOrigen</t>
   </si>
   <si>
@@ -121,13 +115,13 @@
     <t>UAT4</t>
   </si>
   <si>
-    <t>cpontec</t>
-  </si>
-  <si>
     <t>Producto_Origen</t>
   </si>
   <si>
     <t>e_Tipo_Transac</t>
+  </si>
+  <si>
+    <t>ariverar</t>
   </si>
   <si>
     <t>e_TipoAlta</t>
@@ -706,42 +700,42 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>36</v>
-      </c>
-      <c t="s">
+        <v>34</v>
+      </c>
+      <c t="s">
+        <v>32</v>
+      </c>
+      <c t="s">
+        <v>41</v>
+      </c>
+      <c t="s">
+        <v>42</v>
+      </c>
+      <c t="s">
+        <v>25</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>22</v>
+      </c>
+      <c s="1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" t="s">
         <v>35</v>
       </c>
-      <c t="s">
-        <v>43</v>
-      </c>
-      <c t="s">
-        <v>44</v>
-      </c>
-      <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>25</v>
-      </c>
-      <c s="1" t="s">
-        <v>1</v>
-      </c>
-      <c s="1" t="s">
-        <v>37</v>
-      </c>
-      <c s="1" t="s">
-        <v>8</v>
+      <c s="1" t="s">
+        <v>6</v>
       </c>
       <c s="1" t="s">
         <v>1</v>
@@ -762,78 +756,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.30859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.16015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.30859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.16015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>4</v>
-      </c>
-      <c t="s">
-        <v>45</v>
-      </c>
-      <c t="s">
+        <v>43</v>
+      </c>
+      <c t="s">
+        <v>37</v>
+      </c>
+      <c t="s">
+        <v>17</v>
+      </c>
+      <c t="s">
+        <v>26</v>
+      </c>
+      <c t="s">
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>27</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" s="2" customFormat="1">
+      <c s="4">
+        <v>600000190</v>
+      </c>
+      <c s="1" t="s">
         <v>39</v>
       </c>
-      <c t="s">
-        <v>20</v>
-      </c>
-      <c t="s">
-        <v>28</v>
-      </c>
-      <c t="s">
+      <c s="4" t="s">
+        <v>18</v>
+      </c>
+      <c s="1" t="s">
         <v>10</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>3</v>
-      </c>
-      <c t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row ht="12.75" customHeight="1" s="2" customFormat="1">
-      <c s="1" t="s">
-        <v>5</v>
-      </c>
-      <c s="4">
-        <v>650006472</v>
-      </c>
-      <c s="1" t="s">
-        <v>41</v>
-      </c>
-      <c s="4" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>12</v>
-      </c>
       <c s="1"/>
       <c s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c s="1" t="s">
         <v>1</v>
@@ -867,41 +854,41 @@
   <cols>
     <col min="1" max="1" width="9.1484375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.49609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.03125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>26</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-      <c t="s">
-        <v>14</v>
-      </c>
-      <c t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>36</v>
       </c>
       <c t="s">
         <v>2</v>
       </c>
       <c t="s">
+        <v>28</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" t="s">
         <v>30</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row>
-      <c s="1" t="s">
-        <v>1</v>
-      </c>
-      <c s="1" t="s">
-        <v>32</v>
       </c>
       <c s="1" t="s">
         <v>33</v>
@@ -934,7 +921,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -948,24 +935,24 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>15</v>
-      </c>
-      <c t="s">
-        <v>6</v>
-      </c>
-      <c t="s">
-        <v>16</v>
-      </c>
-      <c t="s">
         <v>13</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>14</v>
+      </c>
+      <c t="s">
+        <v>11</v>
       </c>
     </row>
     <row>
       <c s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c s="4">
-        <v>20547765860</v>
+        <v>70987719</v>
       </c>
       <c s="1"/>
       <c s="3"/>
@@ -995,7 +982,7 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row>
@@ -1033,36 +1020,36 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>46</v>
-      </c>
-      <c t="s">
-        <v>17</v>
-      </c>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c t="s">
-        <v>34</v>
-      </c>
-      <c t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c t="s">
+        <v>15</v>
+      </c>
+      <c t="s">
+        <v>20</v>
+      </c>
+      <c t="s">
+        <v>31</v>
+      </c>
+      <c t="s">
+        <v>38</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>7</v>
-      </c>
-      <c s="1" t="s">
-        <v>19</v>
-      </c>
-      <c s="1" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" t="s">
+        <v>29</v>
       </c>
       <c s="1" t="s">
         <v>0</v>
       </c>
       <c s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
